--- a/Заказ №1 Этап №1.xlsx.xlsx
+++ b/Заказ №1 Этап №1.xlsx.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="E2" s="1" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>4</v>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="N2" s="1" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="N3" s="2" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="O3" s="2" t="inlineStr"/>
       <c r="P3" s="2" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="N4" s="2" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="O4" s="2" t="inlineStr"/>
       <c r="P4" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>250 (Алюм)</t>
+          <t>1000 (Алюм)</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="N5" s="2" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="O5" s="2" t="inlineStr"/>
       <c r="P5" s="2" t="inlineStr"/>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>250 (Алюм)</t>
+          <t>1000 (Алюм)</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="N6" s="2" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="O6" s="2" t="inlineStr"/>
       <c r="P6" s="2" t="inlineStr"/>
@@ -1111,24 +1111,24 @@
         </is>
       </c>
       <c r="E7" s="1" t="n">
-        <v>250</v>
+        <v>1250</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>4</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>Стыковочный блок</t>
+          <t>Прямая секция</t>
         </is>
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>sb</t>
+          <t>pt3.0</t>
         </is>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="N7" s="1" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -1194,12 +1194,12 @@
           <t>Х</t>
         </is>
       </c>
-      <c r="W7" s="1" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="X7" s="1" t="inlineStr"/>
+      <c r="W7" s="1" t="inlineStr"/>
+      <c r="X7" s="1" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
       <c r="Y7" s="1" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
@@ -1231,16 +1231,16 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>Стенка стыка</t>
+          <t>Крышка с выступом крашенная</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>СС</t>
+          <t>КВ-кр</t>
         </is>
       </c>
       <c r="I8" s="2" t="n">
-        <v>69</v>
+        <v>2763</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="N8" s="2" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="O8" s="2" t="inlineStr"/>
       <c r="P8" s="2" t="inlineStr">
@@ -1287,7 +1287,11 @@
           <t>Х</t>
         </is>
       </c>
-      <c r="U8" s="2" t="inlineStr"/>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
           <t>Х</t>
@@ -1298,11 +1302,7 @@
           <t>Х</t>
         </is>
       </c>
-      <c r="X8" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
+      <c r="X8" s="2" t="inlineStr"/>
       <c r="Y8" s="2" t="inlineStr">
         <is>
           <t>Х</t>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>250 (Алюм)</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
@@ -1338,16 +1338,16 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>Пластина токопроводящая</t>
+          <t>Стенка крашенная</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>ТП</t>
+          <t>С-кр</t>
         </is>
       </c>
       <c r="I9" s="2" t="n">
-        <v>30</v>
+        <v>2762</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
@@ -1370,10 +1370,14 @@
         </is>
       </c>
       <c r="N9" s="2" t="n">
-        <v>240</v>
+        <v>2</v>
       </c>
       <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr"/>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
           <t>Х</t>
@@ -1384,13 +1388,21 @@
           <t>Х</t>
         </is>
       </c>
-      <c r="S9" s="2" t="inlineStr"/>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
           <t>Х</t>
         </is>
       </c>
-      <c r="U9" s="2" t="inlineStr"/>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
           <t>Х</t>
@@ -1429,7 +1441,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1250 (Алюм)</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
@@ -1437,21 +1449,19 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>Втулка</t>
+          <t>Шина (СТП 05)</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>Ш1</t>
         </is>
       </c>
       <c r="I10" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>2959</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>2964</v>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
@@ -1469,21 +1479,21 @@
         </is>
       </c>
       <c r="N10" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr"/>
-      <c r="R10" s="2" t="inlineStr"/>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
+      <c r="P10" s="2" t="inlineStr"/>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr"/>
       <c r="T10" s="2" t="inlineStr">
         <is>
           <t>Х</t>
@@ -1494,21 +1504,9 @@
           <t>Х</t>
         </is>
       </c>
-      <c r="V10" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="W10" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="X10" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
+      <c r="V10" s="2" t="inlineStr"/>
+      <c r="W10" s="2" t="inlineStr"/>
+      <c r="X10" s="2" t="inlineStr"/>
       <c r="Y10" s="2" t="inlineStr">
         <is>
           <t>Х</t>
@@ -1516,460 +1514,414 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>E3</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>Al</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="n">
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1250 (Алюм)</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>Крышка стыка</t>
-        </is>
-      </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>КСБ</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J11" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L11" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M11" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N11" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="O11" s="1" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="P11" s="1" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="Q11" s="1" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="R11" s="1" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="S11" s="1" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="T11" s="1" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="U11" s="1" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="V11" s="1" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="W11" s="1" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="X11" s="1" t="inlineStr"/>
-      <c r="Y11" s="1" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>Шина (СТП 06)</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Ш2</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>2959</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>2959.4</v>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" s="2" t="inlineStr"/>
+      <c r="P11" s="2" t="inlineStr"/>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr"/>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr"/>
+      <c r="W11" s="2" t="inlineStr"/>
+      <c r="X11" s="2" t="inlineStr"/>
+      <c r="Y11" s="2" t="inlineStr">
         <is>
           <t>Х</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>E3</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>Al</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="n">
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>Демпфер</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="U12" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="V12" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="W12" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="X12" s="2" t="inlineStr"/>
-      <c r="Y12" s="2" t="inlineStr">
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>Направляющая</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>Н</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N12" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="inlineStr"/>
+      <c r="P12" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="Q12" s="3" t="inlineStr"/>
+      <c r="R12" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="S12" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="T12" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="U12" s="3" t="inlineStr"/>
+      <c r="V12" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="W12" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="X12" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="Y12" s="3" t="inlineStr">
         <is>
           <t>Х</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>E3</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>Al</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="n">
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>Изолятор крайний</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>ИК</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="O13" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="S13" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="T13" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="U13" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="V13" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="W13" s="2" t="inlineStr"/>
-      <c r="X13" s="2" t="inlineStr"/>
-      <c r="Y13" s="2" t="inlineStr">
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>Сухарь</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>СУ</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N13" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O13" s="3" t="inlineStr"/>
+      <c r="P13" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="Q13" s="3" t="inlineStr"/>
+      <c r="R13" s="3" t="inlineStr"/>
+      <c r="S13" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="T13" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="U13" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="V13" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="W13" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="X13" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="Y13" s="3" t="inlineStr">
         <is>
           <t>Х</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>E3</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>Al</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="n">
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>1250</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>Изолятор средний</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>ИС</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="S14" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="T14" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="U14" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="V14" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="W14" s="2" t="inlineStr"/>
-      <c r="X14" s="2" t="inlineStr"/>
-      <c r="Y14" s="2" t="inlineStr">
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>Направляющая</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>Н</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>179</v>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M14" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N14" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3" t="inlineStr"/>
+      <c r="P14" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="Q14" s="3" t="inlineStr"/>
+      <c r="R14" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="S14" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="T14" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="U14" s="3" t="inlineStr"/>
+      <c r="V14" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="W14" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="X14" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="Y14" s="3" t="inlineStr">
         <is>
           <t>Х</t>
         </is>
@@ -1996,7 +1948,7 @@
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F15" s="3" t="n">
@@ -2004,16 +1956,16 @@
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>Направляющая</t>
+          <t>Сухарь</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>Н</t>
+          <t>СУ</t>
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
@@ -2036,7 +1988,7 @@
         </is>
       </c>
       <c r="N15" s="3" t="n">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="O15" s="3" t="inlineStr"/>
       <c r="P15" s="3" t="inlineStr">
@@ -2045,11 +1997,7 @@
         </is>
       </c>
       <c r="Q15" s="3" t="inlineStr"/>
-      <c r="R15" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
+      <c r="R15" s="3" t="inlineStr"/>
       <c r="S15" s="3" t="inlineStr">
         <is>
           <t>Х</t>
@@ -2060,7 +2008,11 @@
           <t>Х</t>
         </is>
       </c>
-      <c r="U15" s="3" t="inlineStr"/>
+      <c r="U15" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
       <c r="V15" s="3" t="inlineStr">
         <is>
           <t>Х</t>
@@ -2077,113 +2029,6 @@
         </is>
       </c>
       <c r="Y15" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>Сухарь</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>СУ</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L16" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M16" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N16" s="3" t="n">
-        <v>120</v>
-      </c>
-      <c r="O16" s="3" t="inlineStr"/>
-      <c r="P16" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="Q16" s="3" t="inlineStr"/>
-      <c r="R16" s="3" t="inlineStr"/>
-      <c r="S16" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="T16" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="U16" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="V16" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="W16" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="X16" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="Y16" s="3" t="inlineStr">
         <is>
           <t>Х</t>
         </is>
@@ -2193,8 +2038,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 Ведомость Нач.смен&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_09 09 2021</oddHeader>
-    <oddFooter>&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_LAPTOP-MKGT243D</oddFooter>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 Ведомость Нач.смен&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_11 10 2021</oddHeader>
+    <oddFooter>&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
@@ -2209,7 +2054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2312,7 +2157,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -2383,7 +2228,7 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>250 (Алюм)</t>
+          <t>1000 (Алюм)</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -2454,7 +2299,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>250 (Алюм)</t>
+          <t>1000 (Алюм)</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -2505,7 +2350,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -2525,7 +2370,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -2535,17 +2380,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>Изолятор крайний</t>
+          <t>Прямая секция</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>ИК</t>
+          <t>pt3.0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2569,14 +2414,14 @@
         </is>
       </c>
       <c r="N5" s="2">
-        <f>'Ведомость Нач.смен'!N13-'Ведомость Нач.смен'!W13</f>
+        <f>'Ведомость Нач.смен'!N7-'Ведомость Нач.смен'!W7</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -2596,7 +2441,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1250 (Алюм)</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -2606,22 +2451,22 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>Изолятор средний</t>
+          <t>Шина (СТП 05)</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>ИС</t>
+          <t>Ш1</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2959.0</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2964.0</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -2640,7 +2485,78 @@
         </is>
       </c>
       <c r="N6" s="2">
-        <f>'Ведомость Нач.смен'!N14-'Ведомость Нач.смен'!W14</f>
+        <f>'Ведомость Нач.смен'!N10-'Ведомость Нач.смен'!W10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1250 (Алюм)</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>Шина (СТП 06)</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>Ш2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2959.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2959.4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N7" s="2">
+        <f>'Ведомость Нач.смен'!N11-'Ведомость Нач.смен'!W11</f>
         <v/>
       </c>
     </row>
@@ -2648,8 +2564,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 покраска&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_09 09 2021</oddHeader>
-    <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_LAPTOP-MKGT243D</oddFooter>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 покраска&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_11 10 2021</oddHeader>
+    <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
@@ -2664,7 +2580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2838,7 +2754,7 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -2909,7 +2825,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>250 (Алюм)</t>
+          <t>1000 (Алюм)</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -2980,7 +2896,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>250 (Алюм)</t>
+          <t>1000 (Алюм)</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -3031,7 +2947,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -3051,7 +2967,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -3061,17 +2977,17 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>Стыковочный блок</t>
+          <t>Крышка с выступом крашенная</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>sb</t>
+          <t>КВ-кр</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2763.0</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -3095,7 +3011,7 @@
         </is>
       </c>
       <c r="N6" s="2">
-        <f>'Ведомость Нач.смен'!N7-'Ведомость Нач.смен'!X7</f>
+        <f>'Ведомость Нач.смен'!N8-'Ведомость Нач.смен'!X8</f>
         <v/>
       </c>
     </row>
@@ -3122,7 +3038,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>250 (Алюм)</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -3132,17 +3048,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>Пластина токопроводящая</t>
+          <t>Стенка крашенная</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>ТП</t>
+          <t>С-кр</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2762.0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3173,7 +3089,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -3193,7 +3109,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1250 (Алюм)</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -3203,22 +3119,22 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>Крышка стыка</t>
+          <t>Шина (СТП 05)</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>КСБ</t>
+          <t>Ш1</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2959.0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2964.0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -3237,14 +3153,14 @@
         </is>
       </c>
       <c r="N8" s="2">
-        <f>'Ведомость Нач.смен'!N11-'Ведомость Нач.смен'!X11</f>
+        <f>'Ведомость Нач.смен'!N10-'Ведомость Нач.смен'!X10</f>
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -3264,7 +3180,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1250 (Алюм)</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -3274,22 +3190,22 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>Демпфер</t>
+          <t>Шина (СТП 06)</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Ш2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2959.0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2959.4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -3308,149 +3224,7 @@
         </is>
       </c>
       <c r="N9" s="2">
-        <f>'Ведомость Нач.смен'!N12-'Ведомость Нач.смен'!X12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>Изолятор крайний</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>ИК</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N10" s="2">
-        <f>'Ведомость Нач.смен'!N13-'Ведомость Нач.смен'!X13</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>Изолятор средний</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>ИС</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N11" s="2">
-        <f>'Ведомость Нач.смен'!N14-'Ведомость Нач.смен'!X14</f>
+        <f>'Ведомость Нач.смен'!N11-'Ведомость Нач.смен'!X11</f>
         <v/>
       </c>
     </row>
@@ -3458,8 +3232,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 предсборка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_09 09 2021</oddHeader>
-    <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_LAPTOP-MKGT243D</oddFooter>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 предсборка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_11 10 2021</oddHeader>
+    <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
@@ -3577,7 +3351,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -3648,7 +3422,7 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -3658,17 +3432,17 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>Стыковочный блок</t>
+          <t>Прямая секция</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>sb</t>
+          <t>pt3.0</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
@@ -3700,8 +3474,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 сборка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_09 09 2021</oddHeader>
-    <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_LAPTOP-MKGT243D</oddFooter>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 сборка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_11 10 2021</oddHeader>
+    <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
@@ -3716,7 +3490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3890,7 +3664,7 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -3961,7 +3735,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>250 (Алюм)</t>
+          <t>1000 (Алюм)</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -4032,7 +3806,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>250 (Алюм)</t>
+          <t>1000 (Алюм)</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -4103,7 +3877,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -4113,17 +3887,17 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>Стенка стыка</t>
+          <t>Крышка с выступом крашенная</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>СС</t>
+          <t>КВ-кр</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>2763.0</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -4174,7 +3948,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>250 (Алюм)</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -4184,17 +3958,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>Пластина токопроводящая</t>
+          <t>Стенка крашенная</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>ТП</t>
+          <t>С-кр</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2762.0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4245,7 +4019,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1250 (Алюм)</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -4255,22 +4029,22 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>Втулка</t>
+          <t>Шина (СТП 05)</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>Ш1</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>2959.0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2964.0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -4296,7 +4070,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -4316,7 +4090,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1250 (Алюм)</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -4326,22 +4100,22 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>Направляющая</t>
+          <t>Шина (СТП 06)</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>Н</t>
+          <t>Ш2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>2959.0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2959.4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -4360,14 +4134,14 @@
         </is>
       </c>
       <c r="N9" s="2">
-        <f>'Ведомость Нач.смен'!N15-'Ведомость Нач.смен'!O15</f>
+        <f>'Ведомость Нач.смен'!N11-'Ведомость Нач.смен'!O11</f>
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -4387,7 +4161,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -4397,41 +4171,254 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>Направляющая</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Н</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N10" s="2">
+        <f>'Ведомость Нач.смен'!N12-'Ведомость Нач.смен'!O12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>Сухарь</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>СУ</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N10" s="2">
-        <f>'Ведомость Нач.смен'!N16-'Ведомость Нач.смен'!O16</f>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N11" s="2">
+        <f>'Ведомость Нач.смен'!N13-'Ведомость Нач.смен'!O13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1250</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>Направляющая</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Н</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N12" s="2">
+        <f>'Ведомость Нач.смен'!N14-'Ведомость Нач.смен'!O14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>Сухарь</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>СУ</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N13" s="2">
+        <f>'Ведомость Нач.смен'!N15-'Ведомость Нач.смен'!O15</f>
         <v/>
       </c>
     </row>
@@ -4439,8 +4426,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 пила&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_09 09 2021</oddHeader>
-    <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_LAPTOP-MKGT243D</oddFooter>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 пила&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_11 10 2021</oddHeader>
+    <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
@@ -4455,7 +4442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4558,7 +4545,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>250 (Алюм)</t>
+          <t>1000 (Алюм)</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -4629,7 +4616,7 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>250 (Алюм)</t>
+          <t>1000 (Алюм)</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -4680,7 +4667,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -4700,7 +4687,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>250 (Алюм)</t>
+          <t>1250 (Алюм)</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -4710,22 +4697,22 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>Пластина токопроводящая</t>
+          <t>Шина (СТП 05)</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>ТП</t>
+          <t>Ш1</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2959.0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2964.0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -4744,7 +4731,78 @@
         </is>
       </c>
       <c r="N4" s="2">
-        <f>'Ведомость Нач.смен'!N9-'Ведомость Нач.смен'!P9</f>
+        <f>'Ведомость Нач.смен'!N10-'Ведомость Нач.смен'!P10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1250 (Алюм)</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>Шина (СТП 06)</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Ш2</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2959.0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2959.4</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N5" s="2">
+        <f>'Ведомость Нач.смен'!N11-'Ведомость Нач.смен'!P11</f>
         <v/>
       </c>
     </row>
@@ -4752,8 +4810,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 гибка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_09 09 2021</oddHeader>
-    <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_LAPTOP-MKGT243D</oddFooter>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 гибка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_11 10 2021</oddHeader>
+    <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
@@ -4768,7 +4826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4942,7 +5000,7 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -4952,17 +5010,17 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>Стенка стыка</t>
+          <t>Крышка с выступом крашенная</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>СС</t>
+          <t>КВ-кр</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>2763.0</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
@@ -4993,7 +5051,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -5013,7 +5071,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -5023,17 +5081,17 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>Втулка</t>
+          <t>Направляющая</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>Н</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>149</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -5057,14 +5115,14 @@
         </is>
       </c>
       <c r="N4" s="2">
-        <f>'Ведомость Нач.смен'!N10-'Ведомость Нач.смен'!Q10</f>
+        <f>'Ведомость Нач.смен'!N12-'Ведомость Нач.смен'!Q12</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -5084,7 +5142,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -5094,17 +5152,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>Направляющая</t>
+          <t>Сухарь</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>Н</t>
+          <t>СУ</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -5128,14 +5186,14 @@
         </is>
       </c>
       <c r="N5" s="2">
-        <f>'Ведомость Нач.смен'!N15-'Ведомость Нач.смен'!Q15</f>
+        <f>'Ведомость Нач.смен'!N13-'Ведомость Нач.смен'!Q13</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -5155,7 +5213,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -5165,41 +5223,112 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>Направляющая</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Н</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N6" s="2">
+        <f>'Ведомость Нач.смен'!N14-'Ведомость Нач.смен'!Q14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>Сухарь</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>СУ</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N6" s="2">
-        <f>'Ведомость Нач.смен'!N16-'Ведомость Нач.смен'!Q16</f>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N7" s="2">
+        <f>'Ведомость Нач.смен'!N15-'Ведомость Нач.смен'!Q15</f>
         <v/>
       </c>
     </row>
@@ -5207,8 +5336,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 фрезер&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_09 09 2021</oddHeader>
-    <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_LAPTOP-MKGT243D</oddFooter>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 фрезер&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_11 10 2021</oddHeader>
+    <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
@@ -5306,7 +5435,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -5336,17 +5465,17 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>Втулка</t>
+          <t>Сухарь</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>СУ</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
@@ -5370,14 +5499,14 @@
         </is>
       </c>
       <c r="N2" s="2">
-        <f>'Ведомость Нач.смен'!N10-'Ведомость Нач.смен'!R10</f>
+        <f>'Ведомость Нач.смен'!N13-'Ведомость Нач.смен'!R13</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -5441,7 +5570,7 @@
         </is>
       </c>
       <c r="N3" s="2">
-        <f>'Ведомость Нач.смен'!N16-'Ведомость Нач.смен'!R16</f>
+        <f>'Ведомость Нач.смен'!N15-'Ведомость Нач.смен'!R15</f>
         <v/>
       </c>
     </row>
@@ -5449,8 +5578,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 сверловка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_09 09 2021</oddHeader>
-    <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_LAPTOP-MKGT243D</oddFooter>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 сверловка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_11 10 2021</oddHeader>
+    <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
@@ -5465,7 +5594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5568,7 +5697,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>250 (Алюм)</t>
+          <t>1000 (Алюм)</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -5639,7 +5768,7 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>250 (Алюм)</t>
+          <t>1000 (Алюм)</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -5690,7 +5819,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -5710,7 +5839,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>250 (Алюм)</t>
+          <t>1250 (Алюм)</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -5720,22 +5849,22 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>Пластина токопроводящая</t>
+          <t>Шина (СТП 05)</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>ТП</t>
+          <t>Ш1</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2959.0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2964.0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -5754,7 +5883,78 @@
         </is>
       </c>
       <c r="N4" s="2">
-        <f>'Ведомость Нач.смен'!N9-'Ведомость Нач.смен'!S9</f>
+        <f>'Ведомость Нач.смен'!N10-'Ведомость Нач.смен'!S10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1250 (Алюм)</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>Шина (СТП 06)</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Ш2</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2959.0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2959.4</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N5" s="2">
+        <f>'Ведомость Нач.смен'!N11-'Ведомость Нач.смен'!S11</f>
         <v/>
       </c>
     </row>
@@ -5762,8 +5962,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 напыление&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_09 09 2021</oddHeader>
-    <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_LAPTOP-MKGT243D</oddFooter>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 напыление&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_11 10 2021</oddHeader>
+    <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
@@ -5862,8 +6062,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 сварка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_09 09 2021</oddHeader>
-    <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_LAPTOP-MKGT243D</oddFooter>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 сварка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_11 10 2021</oddHeader>
+    <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
@@ -5873,319 +6073,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:N4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>№</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Серия</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ip</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Материал</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>In</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Кол. пров.</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Наименование</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Обозначение</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Разм.L</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Разм.L1</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Разм.A</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Разм.B</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Разм.C</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Кол.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Стенка стыка</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>СС</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N2" s="2">
-        <f>'Ведомость Нач.смен'!N8-'Ведомость Нач.смен'!U8</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>250 (Алюм)</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>Пластина токопроводящая</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>ТП</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M3" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N3" s="2">
-        <f>'Ведомость Нач.смен'!N9-'Ведомость Нач.смен'!U9</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>Направляющая</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N4" s="2">
-        <f>'Ведомость Нач.смен'!N15-'Ведомость Нач.смен'!U15</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup fitToHeight="0"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 зачистка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_09 09 2021</oddHeader>
-    <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_LAPTOP-MKGT243D</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6274,52 +6161,52 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>250 (Алюм)</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>Шина (СТП 05)</t>
+          <t>Направляющая</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>Ш1</t>
+          <t>Н</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>2959.0</t>
+          <t>149</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>2964.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
@@ -6338,14 +6225,14 @@
         </is>
       </c>
       <c r="N2" s="2">
-        <f>'Ведомость Нач.смен'!N5-'Ведомость Нач.смен'!V5</f>
+        <f>'Ведомость Нач.смен'!N12-'Ведомость Нач.смен'!U12</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -6365,7 +6252,7 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>250 (Алюм)</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -6375,22 +6262,22 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>Шина (СТП 06)</t>
+          <t>Направляющая</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>Ш2</t>
+          <t>Н</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>2959.0</t>
+          <t>179</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>2959.4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
@@ -6409,7 +6296,7 @@
         </is>
       </c>
       <c r="N3" s="2">
-        <f>'Ведомость Нач.смен'!N6-'Ведомость Нач.смен'!V6</f>
+        <f>'Ведомость Нач.смен'!N14-'Ведомость Нач.смен'!U14</f>
         <v/>
       </c>
     </row>
@@ -6417,8 +6304,392 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 шлифовка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_09 09 2021</oddHeader>
-    <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_LAPTOP-MKGT243D</oddFooter>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 зачистка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_11 10 2021</oddHeader>
+    <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>№</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Серия</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ip</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Материал</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Кол. пров.</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Наименование</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Обозначение</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Разм.L</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Разм.L1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Разм.A</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Разм.B</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Разм.C</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Кол.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>1000 (Алюм)</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Шина (СТП 05)</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Ш1</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>2959.0</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>2964.0</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N2" s="2">
+        <f>'Ведомость Нач.смен'!N5-'Ведомость Нач.смен'!V5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>1000 (Алюм)</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Шина (СТП 06)</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>Ш2</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>2959.0</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>2959.4</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N3" s="2">
+        <f>'Ведомость Нач.смен'!N6-'Ведомость Нач.смен'!V6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1250 (Алюм)</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>Шина (СТП 05)</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Ш1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2959.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2964.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N4" s="2">
+        <f>'Ведомость Нач.смен'!N10-'Ведомость Нач.смен'!V10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1250 (Алюм)</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>Шина (СТП 06)</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Ш2</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2959.0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2959.4</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N5" s="2">
+        <f>'Ведомость Нач.смен'!N11-'Ведомость Нач.смен'!V11</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup fitToHeight="0"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 шлифовка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_11 10 2021</oddHeader>
+    <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>

--- a/Заказ №1 Этап №1.xlsx.xlsx
+++ b/Заказ №1 Этап №1.xlsx.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,19 +596,19 @@
         </is>
       </c>
       <c r="E2" s="1" t="n">
-        <v>5000</v>
+        <v>1600</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>Угловая вертикальная секция</t>
+          <t>z-образная горизонтальная</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>uv</t>
+          <t>zg5</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -623,17 +623,17 @@
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>500</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>500</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>500</t>
         </is>
       </c>
       <c r="N2" s="1" t="n">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>К-СД2</t>
+          <t>К-СД4</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
@@ -726,20 +726,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M3" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K3" s="2" t="n">
+        <v>444</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>625</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>444</v>
       </c>
       <c r="N3" s="2" t="n">
         <v>1</v>
@@ -809,7 +803,7 @@
         </is>
       </c>
       <c r="F4" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
@@ -818,11 +812,11 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>К3</t>
+          <t>К2</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
@@ -916,7 +910,7 @@
         </is>
       </c>
       <c r="F5" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
@@ -925,11 +919,11 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>К3</t>
+          <t>К7</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>467</v>
+        <v>625</v>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
@@ -999,212 +993,206 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>Крышка</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>К2</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>444</v>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3" t="inlineStr"/>
+      <c r="P6" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="Q6" s="3" t="inlineStr"/>
+      <c r="R6" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="S6" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="T6" s="3" t="inlineStr"/>
+      <c r="U6" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="V6" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="W6" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="X6" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="Y6" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>Крышка СБ</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>К-СД3</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="n">
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>К-СД5</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>444</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>625</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>444</v>
+      </c>
+      <c r="N7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="T6" s="2" t="inlineStr"/>
-      <c r="U6" s="2" t="inlineStr"/>
-      <c r="V6" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="W6" s="2" t="inlineStr"/>
-      <c r="X6" s="2" t="inlineStr"/>
-      <c r="Y6" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>Крышка</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>К4</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>230</v>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="3" t="inlineStr"/>
-      <c r="P7" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="Q7" s="3" t="inlineStr"/>
-      <c r="R7" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="S7" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="T7" s="3" t="inlineStr"/>
-      <c r="U7" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="V7" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="W7" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="X7" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="Y7" s="3" t="inlineStr">
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr"/>
+      <c r="U7" s="2" t="inlineStr"/>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr"/>
+      <c r="X7" s="2" t="inlineStr"/>
+      <c r="Y7" s="2" t="inlineStr">
         <is>
           <t>Х</t>
         </is>
@@ -1235,7 +1223,7 @@
         </is>
       </c>
       <c r="F8" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
@@ -1244,11 +1232,11 @@
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>К4</t>
+          <t>К1</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>230</v>
+        <v>444</v>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
@@ -1318,103 +1306,107 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>Стенка СБ</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>С-СД3</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="n">
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>Крышка</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>К8</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>625</v>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="Q9" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="S9" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="T9" s="2" t="inlineStr"/>
-      <c r="U9" s="2" t="inlineStr"/>
-      <c r="V9" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="W9" s="2" t="inlineStr"/>
-      <c r="X9" s="2" t="inlineStr"/>
-      <c r="Y9" s="2" t="inlineStr">
+      <c r="O9" s="3" t="inlineStr"/>
+      <c r="P9" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="Q9" s="3" t="inlineStr"/>
+      <c r="R9" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="S9" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="T9" s="3" t="inlineStr"/>
+      <c r="U9" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="V9" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="W9" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="X9" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="Y9" s="3" t="inlineStr">
         <is>
           <t>Х</t>
         </is>
@@ -1439,24 +1431,26 @@
           <t>Al</t>
         </is>
       </c>
-      <c r="E10" s="3" t="n">
-        <v>2000</v>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F10" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>Стенка</t>
+          <t>Крышка</t>
         </is>
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>С1</t>
+          <t>К1</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
@@ -1487,11 +1481,7 @@
           <t>Х</t>
         </is>
       </c>
-      <c r="Q10" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
+      <c r="Q10" s="3" t="inlineStr"/>
       <c r="R10" s="3" t="inlineStr">
         <is>
           <t>Х</t>
@@ -1530,212 +1520,208 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>Стенка СБ</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>С-СД13</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>396.5</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>475</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>341.5</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr"/>
+      <c r="U11" s="2" t="inlineStr"/>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr"/>
+      <c r="X11" s="2" t="inlineStr"/>
+      <c r="Y11" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
         <is>
           <t>Стенка</t>
         </is>
       </c>
-      <c r="H11" s="3" t="inlineStr">
-        <is>
-          <t>С2</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>433</v>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K11" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L11" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M11" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N11" s="3" t="n">
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>396.5</v>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="O11" s="3" t="inlineStr"/>
-      <c r="P11" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="Q11" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="R11" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="S11" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="T11" s="3" t="inlineStr"/>
-      <c r="U11" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="V11" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="W11" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="X11" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="Y11" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>Стенка СБ</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>С-СД3</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="inlineStr"/>
-      <c r="U12" s="2" t="inlineStr"/>
-      <c r="V12" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="W12" s="2" t="inlineStr"/>
-      <c r="X12" s="2" t="inlineStr"/>
-      <c r="Y12" s="2" t="inlineStr">
+      <c r="O12" s="3" t="inlineStr"/>
+      <c r="P12" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="Q12" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="R12" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="S12" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="T12" s="3" t="inlineStr"/>
+      <c r="U12" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="V12" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="W12" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="X12" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="Y12" s="3" t="inlineStr">
         <is>
           <t>Х</t>
         </is>
@@ -1760,24 +1746,26 @@
           <t>Al</t>
         </is>
       </c>
-      <c r="E13" s="3" t="n">
-        <v>2000</v>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F13" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>Стенка</t>
+          <t>Уголок_25х25х3</t>
         </is>
       </c>
       <c r="H13" s="3" t="inlineStr">
         <is>
-          <t>С1</t>
+          <t>У</t>
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>433</v>
+        <v>163</v>
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
@@ -1800,7 +1788,7 @@
         </is>
       </c>
       <c r="N13" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" s="3" t="inlineStr"/>
       <c r="P13" s="3" t="inlineStr">
@@ -1869,11 +1857,13 @@
           <t>Al</t>
         </is>
       </c>
-      <c r="E14" s="3" t="n">
-        <v>2000</v>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
       </c>
       <c r="F14" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
@@ -1882,11 +1872,11 @@
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>С2</t>
+          <t>С</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>433</v>
+        <v>475</v>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
@@ -1960,196 +1950,208 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>Шина СБ</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Ш-СД1</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>531.4</v>
-      </c>
-      <c r="L15" s="2" t="n">
-        <v>331.4</v>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="n">
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>Стенка</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>341.5</v>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N15" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="O15" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="P15" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="Q15" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="S15" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="T15" s="2" t="inlineStr"/>
-      <c r="U15" s="2" t="inlineStr"/>
-      <c r="V15" s="2" t="inlineStr"/>
-      <c r="W15" s="2" t="inlineStr"/>
-      <c r="X15" s="2" t="inlineStr"/>
-      <c r="Y15" s="2" t="inlineStr">
+      <c r="O15" s="3" t="inlineStr"/>
+      <c r="P15" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="Q15" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="R15" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="S15" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="T15" s="3" t="inlineStr"/>
+      <c r="U15" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="V15" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="W15" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="X15" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="Y15" s="3" t="inlineStr">
         <is>
           <t>Х</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>2500 (Алюм)</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>Шина (СТП 036)</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>Ш3</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>529.5</v>
-      </c>
-      <c r="J16" s="3" t="n">
-        <v>531.4</v>
-      </c>
-      <c r="K16" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L16" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M16" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N16" s="3" t="n">
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>Стенка СБ</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>С-СД13</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>396.5</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>475</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>341.5</v>
+      </c>
+      <c r="N16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="O16" s="3" t="inlineStr"/>
-      <c r="P16" s="3" t="inlineStr"/>
-      <c r="Q16" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="R16" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="S16" s="3" t="inlineStr"/>
-      <c r="T16" s="3" t="inlineStr"/>
-      <c r="U16" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="V16" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="W16" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="X16" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="Y16" s="3" t="inlineStr">
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr"/>
+      <c r="U16" s="2" t="inlineStr"/>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr"/>
+      <c r="X16" s="2" t="inlineStr"/>
+      <c r="Y16" s="2" t="inlineStr">
         <is>
           <t>Х</t>
         </is>
@@ -2176,27 +2178,29 @@
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>2500 (Алюм)</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="F17" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>Шина (СТП 036)</t>
+          <t>Стенка</t>
         </is>
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
-          <t>Ш3</t>
+          <t>С</t>
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>329.5</v>
-      </c>
-      <c r="J17" s="3" t="n">
-        <v>331.4</v>
+        <v>396.5</v>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K17" s="3" t="inlineStr">
         <is>
@@ -2217,7 +2221,11 @@
         <v>1</v>
       </c>
       <c r="O17" s="3" t="inlineStr"/>
-      <c r="P17" s="3" t="inlineStr"/>
+      <c r="P17" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
       <c r="Q17" s="3" t="inlineStr">
         <is>
           <t>Х</t>
@@ -2228,7 +2236,11 @@
           <t>Х</t>
         </is>
       </c>
-      <c r="S17" s="3" t="inlineStr"/>
+      <c r="S17" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
       <c r="T17" s="3" t="inlineStr"/>
       <c r="U17" s="3" t="inlineStr">
         <is>
@@ -2257,99 +2269,111 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>Шина СБ</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Ш-СД31</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="P18" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="S18" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="inlineStr"/>
-      <c r="U18" s="2" t="inlineStr"/>
-      <c r="V18" s="2" t="inlineStr"/>
-      <c r="W18" s="2" t="inlineStr"/>
-      <c r="X18" s="2" t="inlineStr"/>
-      <c r="Y18" s="2" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>Уголок_25х25х3</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>У</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>163</v>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L18" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M18" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N18" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O18" s="3" t="inlineStr"/>
+      <c r="P18" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="Q18" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="R18" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="S18" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="T18" s="3" t="inlineStr"/>
+      <c r="U18" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="V18" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="W18" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="X18" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="Y18" s="3" t="inlineStr">
         <is>
           <t>Х</t>
         </is>
@@ -2376,24 +2400,24 @@
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>2500 (Алюм)</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="F19" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t>Шина</t>
+          <t>Стенка</t>
         </is>
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>Ш</t>
+          <t>С</t>
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>529.5</v>
+        <v>475</v>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
@@ -2419,7 +2443,11 @@
         <v>1</v>
       </c>
       <c r="O19" s="3" t="inlineStr"/>
-      <c r="P19" s="3" t="inlineStr"/>
+      <c r="P19" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
       <c r="Q19" s="3" t="inlineStr">
         <is>
           <t>Х</t>
@@ -2430,7 +2458,11 @@
           <t>Х</t>
         </is>
       </c>
-      <c r="S19" s="3" t="inlineStr"/>
+      <c r="S19" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
       <c r="T19" s="3" t="inlineStr"/>
       <c r="U19" s="3" t="inlineStr">
         <is>
@@ -2479,24 +2511,24 @@
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>2500 (Алюм)</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="F20" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>Шина</t>
+          <t>Стенка</t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t>Ш</t>
+          <t>С</t>
         </is>
       </c>
       <c r="I20" s="3" t="n">
-        <v>329.5</v>
+        <v>341.5</v>
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
@@ -2522,7 +2554,11 @@
         <v>1</v>
       </c>
       <c r="O20" s="3" t="inlineStr"/>
-      <c r="P20" s="3" t="inlineStr"/>
+      <c r="P20" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
       <c r="Q20" s="3" t="inlineStr">
         <is>
           <t>Х</t>
@@ -2533,7 +2569,11 @@
           <t>Х</t>
         </is>
       </c>
-      <c r="S20" s="3" t="inlineStr"/>
+      <c r="S20" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
       <c r="T20" s="3" t="inlineStr"/>
       <c r="U20" s="3" t="inlineStr">
         <is>
@@ -2562,95 +2602,89 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>Шина СБ (Зеркальная)</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Ш-СД1-З</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>531.4</v>
-      </c>
-      <c r="L21" s="2" t="n">
-        <v>331.4</v>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="n">
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>1600 (Алюм)</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>Шина (СТП 05)</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>Ш13</t>
+        </is>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>1451.9</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>489.5</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>493.9</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>468.5</v>
+      </c>
+      <c r="N21" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="O21" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="P21" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="Q21" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="S21" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="T21" s="2" t="inlineStr"/>
-      <c r="U21" s="2" t="inlineStr"/>
-      <c r="V21" s="2" t="inlineStr"/>
-      <c r="W21" s="2" t="inlineStr"/>
-      <c r="X21" s="2" t="inlineStr"/>
-      <c r="Y21" s="2" t="inlineStr">
+      <c r="O21" s="3" t="inlineStr"/>
+      <c r="P21" s="3" t="inlineStr"/>
+      <c r="Q21" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="R21" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="S21" s="3" t="inlineStr"/>
+      <c r="T21" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="U21" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="V21" s="3" t="inlineStr"/>
+      <c r="W21" s="3" t="inlineStr"/>
+      <c r="X21" s="3" t="inlineStr"/>
+      <c r="Y21" s="3" t="inlineStr">
         <is>
           <t>Х</t>
         </is>
@@ -2677,42 +2711,38 @@
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>2500 (Алюм)</t>
+          <t>1600 (Алюм)</t>
         </is>
       </c>
       <c r="F22" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>Шина (СТП 036)</t>
+          <t>Шина (СТП 06)</t>
         </is>
       </c>
       <c r="H22" s="3" t="inlineStr">
         <is>
-          <t>Ш3</t>
-        </is>
-      </c>
-      <c r="I22" s="3" t="n">
-        <v>529.5</v>
+          <t>Ш14</t>
+        </is>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J22" s="3" t="n">
-        <v>531.4</v>
-      </c>
-      <c r="K22" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L22" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M22" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1447.3</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>480.2</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>493.9</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>473.2</v>
       </c>
       <c r="N22" s="3" t="n">
         <v>1</v>
@@ -2730,27 +2760,19 @@
         </is>
       </c>
       <c r="S22" s="3" t="inlineStr"/>
-      <c r="T22" s="3" t="inlineStr"/>
+      <c r="T22" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
           <t>Х</t>
         </is>
       </c>
-      <c r="V22" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="W22" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="X22" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
+      <c r="V22" s="3" t="inlineStr"/>
+      <c r="W22" s="3" t="inlineStr"/>
+      <c r="X22" s="3" t="inlineStr"/>
       <c r="Y22" s="3" t="inlineStr">
         <is>
           <t>Х</t>
@@ -2778,42 +2800,38 @@
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>2500 (Алюм)</t>
+          <t>1600 (Алюм)</t>
         </is>
       </c>
       <c r="F23" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>Шина (СТП 036)</t>
+          <t>Шина (СТП 06)</t>
         </is>
       </c>
       <c r="H23" s="3" t="inlineStr">
         <is>
-          <t>Ш3</t>
-        </is>
-      </c>
-      <c r="I23" s="3" t="n">
-        <v>329.5</v>
+          <t>Ш15</t>
+        </is>
+      </c>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J23" s="3" t="n">
-        <v>331.4</v>
-      </c>
-      <c r="K23" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L23" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M23" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1447.3</v>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>473.2</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <v>493.9</v>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>480.2</v>
       </c>
       <c r="N23" s="3" t="n">
         <v>1</v>
@@ -2831,27 +2849,19 @@
         </is>
       </c>
       <c r="S23" s="3" t="inlineStr"/>
-      <c r="T23" s="3" t="inlineStr"/>
+      <c r="T23" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
           <t>Х</t>
         </is>
       </c>
-      <c r="V23" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="W23" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="X23" s="3" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
+      <c r="V23" s="3" t="inlineStr"/>
+      <c r="W23" s="3" t="inlineStr"/>
+      <c r="X23" s="3" t="inlineStr"/>
       <c r="Y23" s="3" t="inlineStr">
         <is>
           <t>Х</t>
@@ -2859,105 +2869,89 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>Направляющая</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>475</v>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="n">
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>1600 (Алюм)</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="Q24" s="2" t="inlineStr"/>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="S24" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="T24" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="U24" s="2" t="inlineStr"/>
-      <c r="V24" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="W24" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="X24" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
-      <c r="Y24" s="2" t="inlineStr">
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>Шина (СТП 05)</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>Ш16</t>
+        </is>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="n">
+        <v>1451.9</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>468.5</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <v>493.9</v>
+      </c>
+      <c r="M24" s="3" t="n">
+        <v>489.5</v>
+      </c>
+      <c r="N24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3" t="inlineStr"/>
+      <c r="P24" s="3" t="inlineStr"/>
+      <c r="Q24" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="R24" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="S24" s="3" t="inlineStr"/>
+      <c r="T24" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="U24" s="3" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="V24" s="3" t="inlineStr"/>
+      <c r="W24" s="3" t="inlineStr"/>
+      <c r="X24" s="3" t="inlineStr"/>
+      <c r="Y24" s="3" t="inlineStr">
         <is>
           <t>Х</t>
         </is>
@@ -2984,24 +2978,24 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>Сухарь</t>
+          <t>Направляющая</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>СУ</t>
+          <t>Н</t>
         </is>
       </c>
       <c r="I25" s="2" t="n">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
@@ -3033,7 +3027,11 @@
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr"/>
-      <c r="R25" s="2" t="inlineStr"/>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
           <t>Х</t>
@@ -3044,11 +3042,7 @@
           <t>Х</t>
         </is>
       </c>
-      <c r="U25" s="2" t="inlineStr">
-        <is>
-          <t>Х</t>
-        </is>
-      </c>
+      <c r="U25" s="2" t="inlineStr"/>
       <c r="V25" s="2" t="inlineStr">
         <is>
           <t>Х</t>
@@ -3065,6 +3059,113 @@
         </is>
       </c>
       <c r="Y25" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>Сухарь</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>СУ</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O26" s="2" t="inlineStr"/>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr"/>
+      <c r="R26" s="2" t="inlineStr"/>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="X26" s="2" t="inlineStr">
+        <is>
+          <t>Х</t>
+        </is>
+      </c>
+      <c r="Y26" s="2" t="inlineStr">
         <is>
           <t>Х</t>
         </is>
@@ -3074,7 +3175,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 Ведомость Нач.смен&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_21 10 2021</oddHeader>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 Ведомость Нач.смен&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_08 11 2021</oddHeader>
     <oddFooter>&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>
@@ -3090,7 +3191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3193,22 +3294,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>Угловая вертикальная секция</t>
+          <t>z-образная горизонтальная</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>uv</t>
+          <t>zg5</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -3223,17 +3324,17 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>500</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>500</t>
         </is>
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>500</t>
         </is>
       </c>
       <c r="N2" s="3">
@@ -3269,7 +3370,7 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
@@ -3279,7 +3380,7 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>К-СД2</t>
+          <t>К-СД4</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
@@ -3294,17 +3395,17 @@
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>444.0</t>
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>625.0</t>
         </is>
       </c>
       <c r="M3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>444.0</t>
         </is>
       </c>
       <c r="N3" s="3">
@@ -3315,7 +3416,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -3340,7 +3441,7 @@
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
@@ -3350,7 +3451,7 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>К-СД3</t>
+          <t>К-СД5</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
@@ -3365,28 +3466,28 @@
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>444.0</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>625.0</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>444.0</t>
         </is>
       </c>
       <c r="N4" s="3">
-        <f>'Ведомость Нач.смен'!N6-'Ведомость Нач.смен'!W6</f>
+        <f>'Ведомость Нач.смен'!N7-'Ведомость Нач.смен'!W7</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -3406,12 +3507,12 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
@@ -3421,7 +3522,7 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>С-СД3</t>
+          <t>С-СД13</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
@@ -3436,28 +3537,28 @@
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>396.5</t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>475.0</t>
         </is>
       </c>
       <c r="M5" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>341.5</t>
         </is>
       </c>
       <c r="N5" s="3">
-        <f>'Ведомость Нач.смен'!N9-'Ведомость Нач.смен'!W9</f>
+        <f>'Ведомость Нач.смен'!N11-'Ведомость Нач.смен'!W11</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -3477,12 +3578,12 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
@@ -3492,7 +3593,7 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>С-СД3</t>
+          <t>С-СД13</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
@@ -3507,28 +3608,28 @@
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>396.5</t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>475.0</t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>341.5</t>
         </is>
       </c>
       <c r="N6" s="3">
-        <f>'Ведомость Нач.смен'!N12-'Ведомость Нач.смен'!W12</f>
+        <f>'Ведомость Нач.смен'!N16-'Ведомость Нач.смен'!W16</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -3548,22 +3649,22 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1600 (Алюм)</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>Шина СБ</t>
+          <t>Шина (СТП 05)</t>
         </is>
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>Ш-СД1</t>
+          <t>Ш13</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
@@ -3573,33 +3674,33 @@
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1451.9</t>
         </is>
       </c>
       <c r="K7" s="3" t="inlineStr">
         <is>
-          <t>531.4</t>
+          <t>489.5</t>
         </is>
       </c>
       <c r="L7" s="3" t="inlineStr">
         <is>
-          <t>331.4</t>
+          <t>493.9</t>
         </is>
       </c>
       <c r="M7" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>468.5</t>
         </is>
       </c>
       <c r="N7" s="3">
-        <f>'Ведомость Нач.смен'!N15-'Ведомость Нач.смен'!W15</f>
+        <f>'Ведомость Нач.смен'!N21-'Ведомость Нач.смен'!W21</f>
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -3619,22 +3720,22 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1600 (Алюм)</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>Шина СБ</t>
+          <t>Шина (СТП 06)</t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>Ш-СД31</t>
+          <t>Ш14</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
@@ -3644,33 +3745,33 @@
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1447.3</t>
         </is>
       </c>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>480.2</t>
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>493.9</t>
         </is>
       </c>
       <c r="M8" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>473.2</t>
         </is>
       </c>
       <c r="N8" s="3">
-        <f>'Ведомость Нач.смен'!N18-'Ведомость Нач.смен'!W18</f>
+        <f>'Ведомость Нач.смен'!N22-'Ведомость Нач.смен'!W22</f>
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
@@ -3690,22 +3791,22 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1600 (Алюм)</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>Шина СБ (Зеркальная)</t>
+          <t>Шина (СТП 06)</t>
         </is>
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>Ш-СД1-З</t>
+          <t>Ш15</t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr">
@@ -3715,26 +3816,97 @@
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1447.3</t>
         </is>
       </c>
       <c r="K9" s="3" t="inlineStr">
         <is>
-          <t>531.4</t>
+          <t>473.2</t>
         </is>
       </c>
       <c r="L9" s="3" t="inlineStr">
         <is>
-          <t>331.4</t>
+          <t>493.9</t>
         </is>
       </c>
       <c r="M9" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>480.2</t>
         </is>
       </c>
       <c r="N9" s="3">
-        <f>'Ведомость Нач.смен'!N21-'Ведомость Нач.смен'!W21</f>
+        <f>'Ведомость Нач.смен'!N23-'Ведомость Нач.смен'!W23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>1600 (Алюм)</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>Шина (СТП 05)</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>Ш16</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>1451.9</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>468.5</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>493.9</t>
+        </is>
+      </c>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
+          <t>489.5</t>
+        </is>
+      </c>
+      <c r="N10" s="3">
+        <f>'Ведомость Нач.смен'!N24-'Ведомость Нач.смен'!W24</f>
         <v/>
       </c>
     </row>
@@ -3742,7 +3914,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 покраска&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_21 10 2021</oddHeader>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 покраска&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_08 11 2021</oddHeader>
     <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>
@@ -3758,7 +3930,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3861,22 +4033,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>Угловая вертикальная секция</t>
+          <t>z-образная горизонтальная</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>uv</t>
+          <t>zg5</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -3891,17 +4063,17 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>500</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>500</t>
         </is>
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>500</t>
         </is>
       </c>
       <c r="N2" s="3">
@@ -3937,7 +4109,7 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
@@ -3947,7 +4119,7 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>К-СД2</t>
+          <t>К-СД4</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
@@ -3962,17 +4134,17 @@
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>444.0</t>
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>625.0</t>
         </is>
       </c>
       <c r="M3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>444.0</t>
         </is>
       </c>
       <c r="N3" s="3">
@@ -3983,7 +4155,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -4008,7 +4180,7 @@
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
@@ -4018,7 +4190,7 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>К-СД3</t>
+          <t>К-СД5</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
@@ -4033,28 +4205,28 @@
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>444.0</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>625.0</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>444.0</t>
         </is>
       </c>
       <c r="N4" s="3">
-        <f>'Ведомость Нач.смен'!N6-'Ведомость Нач.смен'!X6</f>
+        <f>'Ведомость Нач.смен'!N7-'Ведомость Нач.смен'!X7</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -4074,12 +4246,12 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
@@ -4089,7 +4261,7 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>С-СД3</t>
+          <t>С-СД13</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
@@ -4104,28 +4276,28 @@
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>396.5</t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>475.0</t>
         </is>
       </c>
       <c r="M5" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>341.5</t>
         </is>
       </c>
       <c r="N5" s="3">
-        <f>'Ведомость Нач.смен'!N9-'Ведомость Нач.смен'!X9</f>
+        <f>'Ведомость Нач.смен'!N11-'Ведомость Нач.смен'!X11</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -4145,12 +4317,12 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
@@ -4160,7 +4332,7 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>С-СД3</t>
+          <t>С-СД13</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
@@ -4175,28 +4347,28 @@
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>396.5</t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>475.0</t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>341.5</t>
         </is>
       </c>
       <c r="N6" s="3">
-        <f>'Ведомость Нач.смен'!N12-'Ведомость Нач.смен'!X12</f>
+        <f>'Ведомость Нач.смен'!N16-'Ведомость Нач.смен'!X16</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -4216,22 +4388,22 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1600 (Алюм)</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>Шина СБ</t>
+          <t>Шина (СТП 05)</t>
         </is>
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>Ш-СД1</t>
+          <t>Ш13</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
@@ -4241,33 +4413,33 @@
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1451.9</t>
         </is>
       </c>
       <c r="K7" s="3" t="inlineStr">
         <is>
-          <t>531.4</t>
+          <t>489.5</t>
         </is>
       </c>
       <c r="L7" s="3" t="inlineStr">
         <is>
-          <t>331.4</t>
+          <t>493.9</t>
         </is>
       </c>
       <c r="M7" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>468.5</t>
         </is>
       </c>
       <c r="N7" s="3">
-        <f>'Ведомость Нач.смен'!N15-'Ведомость Нач.смен'!X15</f>
+        <f>'Ведомость Нач.смен'!N21-'Ведомость Нач.смен'!X21</f>
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -4287,22 +4459,22 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1600 (Алюм)</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>Шина СБ</t>
+          <t>Шина (СТП 06)</t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>Ш-СД31</t>
+          <t>Ш14</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
@@ -4312,33 +4484,33 @@
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1447.3</t>
         </is>
       </c>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>480.2</t>
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>493.9</t>
         </is>
       </c>
       <c r="M8" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>473.2</t>
         </is>
       </c>
       <c r="N8" s="3">
-        <f>'Ведомость Нач.смен'!N18-'Ведомость Нач.смен'!X18</f>
+        <f>'Ведомость Нач.смен'!N22-'Ведомость Нач.смен'!X22</f>
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
@@ -4358,22 +4530,22 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1600 (Алюм)</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>Шина СБ (Зеркальная)</t>
+          <t>Шина (СТП 06)</t>
         </is>
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>Ш-СД1-З</t>
+          <t>Ш15</t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr">
@@ -4383,26 +4555,97 @@
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1447.3</t>
         </is>
       </c>
       <c r="K9" s="3" t="inlineStr">
         <is>
-          <t>531.4</t>
+          <t>473.2</t>
         </is>
       </c>
       <c r="L9" s="3" t="inlineStr">
         <is>
-          <t>331.4</t>
+          <t>493.9</t>
         </is>
       </c>
       <c r="M9" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>480.2</t>
         </is>
       </c>
       <c r="N9" s="3">
-        <f>'Ведомость Нач.смен'!N21-'Ведомость Нач.смен'!X21</f>
+        <f>'Ведомость Нач.смен'!N23-'Ведомость Нач.смен'!X23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>1600 (Алюм)</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>Шина (СТП 05)</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>Ш16</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>1451.9</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>468.5</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>493.9</t>
+        </is>
+      </c>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
+          <t>489.5</t>
+        </is>
+      </c>
+      <c r="N10" s="3">
+        <f>'Ведомость Нач.смен'!N24-'Ведомость Нач.смен'!X24</f>
         <v/>
       </c>
     </row>
@@ -4410,7 +4653,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 предсборка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_21 10 2021</oddHeader>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 предсборка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_08 11 2021</oddHeader>
     <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>
@@ -4529,22 +4772,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>Угловая вертикальная секция</t>
+          <t>z-образная горизонтальная</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>uv</t>
+          <t>zg5</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -4559,17 +4802,17 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>500</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>500</t>
         </is>
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>500</t>
         </is>
       </c>
       <c r="N2" s="3">
@@ -4581,7 +4824,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 сборка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_21 10 2021</oddHeader>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 сборка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_08 11 2021</oddHeader>
     <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>
@@ -4597,7 +4840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4705,7 +4948,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -4715,12 +4958,12 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>К3</t>
+          <t>К2</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>467.0</t>
+          <t>444.0</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -4776,7 +5019,7 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
@@ -4786,12 +5029,12 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>К3</t>
+          <t>К7</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>467.0</t>
+          <t>625.0</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -4822,7 +5065,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -4847,7 +5090,7 @@
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
@@ -4857,12 +5100,12 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>К4</t>
+          <t>К2</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>230.0</t>
+          <t>444.0</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -4886,7 +5129,7 @@
         </is>
       </c>
       <c r="N4" s="3">
-        <f>'Ведомость Нач.смен'!N7-'Ведомость Нач.смен'!O7</f>
+        <f>'Ведомость Нач.смен'!N6-'Ведомость Нач.смен'!O6</f>
         <v/>
       </c>
     </row>
@@ -4918,7 +5161,7 @@
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
@@ -4928,12 +5171,12 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>К4</t>
+          <t>К1</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>230.0</t>
+          <t>444.0</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -4964,852 +5207,1136 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>Крышка</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>К8</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>625.0</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N6" s="3">
+        <f>'Ведомость Нач.смен'!N9-'Ведомость Нач.смен'!O9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>Стенка</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>С1</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>433.0</t>
-        </is>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K6" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L6" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M6" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N6" s="3">
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>Крышка</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>К1</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>444.0</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N7" s="3">
         <f>'Ведомость Нач.смен'!N10-'Ведомость Нач.смен'!O10</f>
         <v/>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>Стенка</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>С2</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>433.0</t>
-        </is>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N7" s="3">
-        <f>'Ведомость Нач.смен'!N11-'Ведомость Нач.смен'!O11</f>
-        <v/>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>Стенка</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>396.5</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N8" s="3">
+        <f>'Ведомость Нач.смен'!N12-'Ведомость Нач.смен'!O12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>Стенка</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="inlineStr">
-        <is>
-          <t>С1</t>
-        </is>
-      </c>
-      <c r="I8" s="3" t="inlineStr">
-        <is>
-          <t>433.0</t>
-        </is>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N8" s="3">
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>Уголок_25х25х3</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>У</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N9" s="3">
         <f>'Ведомость Нач.смен'!N13-'Ведомость Нач.смен'!O13</f>
         <v/>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t>Стенка</t>
         </is>
       </c>
-      <c r="H9" s="3" t="inlineStr">
-        <is>
-          <t>С2</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="inlineStr">
-        <is>
-          <t>433.0</t>
-        </is>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N9" s="3">
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>475.0</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N10" s="3">
         <f>'Ведомость Нач.смен'!N14-'Ведомость Нач.смен'!O14</f>
         <v/>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>2500 (Алюм)</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>Шина (СТП 036)</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="inlineStr">
-        <is>
-          <t>Ш3</t>
-        </is>
-      </c>
-      <c r="I10" s="3" t="inlineStr">
-        <is>
-          <t>529.5</t>
-        </is>
-      </c>
-      <c r="J10" s="3" t="inlineStr">
-        <is>
-          <t>531.4</t>
-        </is>
-      </c>
-      <c r="K10" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L10" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M10" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N10" s="3">
-        <f>'Ведомость Нач.смен'!N16-'Ведомость Нач.смен'!O16</f>
-        <v/>
-      </c>
-    </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>Стенка</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>341.5</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N11" s="3">
+        <f>'Ведомость Нач.смен'!N15-'Ведомость Нач.смен'!O15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>2500 (Алюм)</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>Шина (СТП 036)</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="inlineStr">
-        <is>
-          <t>Ш3</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="inlineStr">
-        <is>
-          <t>329.5</t>
-        </is>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>331.4</t>
-        </is>
-      </c>
-      <c r="K11" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L11" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M11" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N11" s="3">
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>Стенка</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>396.5</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N12" s="3">
         <f>'Ведомость Нач.смен'!N17-'Ведомость Нач.смен'!O17</f>
         <v/>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>Уголок_25х25х3</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>У</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N13" s="3">
+        <f>'Ведомость Нач.смен'!N18-'Ведомость Нач.смен'!O18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>2500 (Алюм)</t>
-        </is>
-      </c>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>Шина</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t>Ш</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="inlineStr">
-        <is>
-          <t>529.5</t>
-        </is>
-      </c>
-      <c r="J12" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K12" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L12" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M12" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N12" s="3">
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>Стенка</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>475.0</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M14" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N14" s="3">
         <f>'Ведомость Нач.смен'!N19-'Ведомость Нач.смен'!O19</f>
         <v/>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>2500 (Алюм)</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>Шина</t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="inlineStr">
-        <is>
-          <t>Ш</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="inlineStr">
-        <is>
-          <t>329.5</t>
-        </is>
-      </c>
-      <c r="J13" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K13" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L13" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M13" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N13" s="3">
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>Стенка</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>341.5</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N15" s="3">
         <f>'Ведомость Нач.смен'!N20-'Ведомость Нач.смен'!O20</f>
         <v/>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>1600 (Алюм)</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>Шина (СТП 05)</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>Ш13</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>1451.9</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>489.5</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="inlineStr">
+        <is>
+          <t>493.9</t>
+        </is>
+      </c>
+      <c r="M16" s="3" t="inlineStr">
+        <is>
+          <t>468.5</t>
+        </is>
+      </c>
+      <c r="N16" s="3">
+        <f>'Ведомость Нач.смен'!N21-'Ведомость Нач.смен'!O21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>2500 (Алюм)</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>Шина (СТП 036)</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t>Ш3</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>529.5</t>
-        </is>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>531.4</t>
-        </is>
-      </c>
-      <c r="K14" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L14" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M14" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N14" s="3">
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>1600 (Алюм)</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>Шина (СТП 06)</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>Ш14</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>1447.3</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
+          <t>480.2</t>
+        </is>
+      </c>
+      <c r="L17" s="3" t="inlineStr">
+        <is>
+          <t>493.9</t>
+        </is>
+      </c>
+      <c r="M17" s="3" t="inlineStr">
+        <is>
+          <t>473.2</t>
+        </is>
+      </c>
+      <c r="N17" s="3">
         <f>'Ведомость Нач.смен'!N22-'Ведомость Нач.смен'!O22</f>
         <v/>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>2500 (Алюм)</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>Шина (СТП 036)</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>Ш3</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>329.5</t>
-        </is>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>331.4</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L15" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M15" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N15" s="3">
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>1600 (Алюм)</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>Шина (СТП 06)</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>Ш15</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>1447.3</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr">
+        <is>
+          <t>473.2</t>
+        </is>
+      </c>
+      <c r="L18" s="3" t="inlineStr">
+        <is>
+          <t>493.9</t>
+        </is>
+      </c>
+      <c r="M18" s="3" t="inlineStr">
+        <is>
+          <t>480.2</t>
+        </is>
+      </c>
+      <c r="N18" s="3">
         <f>'Ведомость Нач.смен'!N23-'Ведомость Нач.смен'!O23</f>
         <v/>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>Направляющая</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>475</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L16" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M16" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N16" s="3">
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>1600 (Алюм)</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>Шина (СТП 05)</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>Ш16</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>1451.9</t>
+        </is>
+      </c>
+      <c r="K19" s="3" t="inlineStr">
+        <is>
+          <t>468.5</t>
+        </is>
+      </c>
+      <c r="L19" s="3" t="inlineStr">
+        <is>
+          <t>493.9</t>
+        </is>
+      </c>
+      <c r="M19" s="3" t="inlineStr">
+        <is>
+          <t>489.5</t>
+        </is>
+      </c>
+      <c r="N19" s="3">
         <f>'Ведомость Нач.смен'!N24-'Ведомость Нач.смен'!O24</f>
         <v/>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>Направляющая</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>Н</t>
+        </is>
+      </c>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K20" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L20" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M20" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N20" s="3">
+        <f>'Ведомость Нач.смен'!N25-'Ведомость Нач.смен'!O25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
         <is>
           <t>Сухарь</t>
         </is>
       </c>
-      <c r="H17" s="3" t="inlineStr">
+      <c r="H21" s="3" t="inlineStr">
         <is>
           <t>СУ</t>
         </is>
       </c>
-      <c r="I17" s="3" t="inlineStr">
+      <c r="I21" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L17" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M17" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N17" s="3">
-        <f>'Ведомость Нач.смен'!N25-'Ведомость Нач.смен'!O25</f>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K21" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L21" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M21" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N21" s="3">
+        <f>'Ведомость Нач.смен'!N26-'Ведомость Нач.смен'!O26</f>
         <v/>
       </c>
     </row>
@@ -5817,7 +6344,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 пила&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_21 10 2021</oddHeader>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 пила&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_08 11 2021</oddHeader>
     <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>
@@ -5833,7 +6360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5916,7 +6443,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -5936,58 +6463,58 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2500 (Алюм)</t>
+          <t>1600 (Алюм)</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>Шина (СТП 036)</t>
+          <t>Шина (СТП 05)</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>Ш3</t>
+          <t>Ш13</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>529.5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>531.4</t>
+          <t>1451.9</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>489.5</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>493.9</t>
         </is>
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>468.5</t>
         </is>
       </c>
       <c r="N2" s="3">
-        <f>'Ведомость Нач.смен'!N16-'Ведомость Нач.смен'!P16</f>
+        <f>'Ведомость Нач.смен'!N21-'Ведомость Нач.смен'!P21</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -6007,58 +6534,58 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>2500 (Алюм)</t>
+          <t>1600 (Алюм)</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>Шина (СТП 036)</t>
+          <t>Шина (СТП 06)</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>Ш3</t>
+          <t>Ш14</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>329.5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>331.4</t>
+          <t>1447.3</t>
         </is>
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>480.2</t>
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>493.9</t>
         </is>
       </c>
       <c r="M3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>473.2</t>
         </is>
       </c>
       <c r="N3" s="3">
-        <f>'Ведомость Нач.смен'!N17-'Ведомость Нач.смен'!P17</f>
+        <f>'Ведомость Нач.смен'!N22-'Ведомость Нач.смен'!P22</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -6078,58 +6605,58 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>2500 (Алюм)</t>
+          <t>1600 (Алюм)</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>Шина</t>
+          <t>Шина (СТП 06)</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>Ш</t>
+          <t>Ш15</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>529.5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1447.3</t>
         </is>
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>473.2</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>493.9</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>480.2</t>
         </is>
       </c>
       <c r="N4" s="3">
-        <f>'Ведомость Нач.смен'!N19-'Ведомость Нач.смен'!P19</f>
+        <f>'Ведомость Нач.смен'!N23-'Ведомость Нач.смен'!P23</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -6149,193 +6676,51 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>2500 (Алюм)</t>
+          <t>1600 (Алюм)</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>Шина</t>
+          <t>Шина (СТП 05)</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>Ш</t>
+          <t>Ш16</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>329.5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1451.9</t>
         </is>
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>468.5</t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>493.9</t>
         </is>
       </c>
       <c r="M5" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>489.5</t>
         </is>
       </c>
       <c r="N5" s="3">
-        <f>'Ведомость Нач.смен'!N20-'Ведомость Нач.смен'!P20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>2500 (Алюм)</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>Шина (СТП 036)</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>Ш3</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>529.5</t>
-        </is>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>531.4</t>
-        </is>
-      </c>
-      <c r="K6" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L6" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M6" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N6" s="3">
-        <f>'Ведомость Нач.смен'!N22-'Ведомость Нач.смен'!P22</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>2500 (Алюм)</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>Шина (СТП 036)</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>Ш3</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>329.5</t>
-        </is>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>331.4</t>
-        </is>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N7" s="3">
-        <f>'Ведомость Нач.смен'!N23-'Ведомость Нач.смен'!P23</f>
+        <f>'Ведомость Нач.смен'!N24-'Ведомость Нач.смен'!P24</f>
         <v/>
       </c>
     </row>
@@ -6343,7 +6728,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 гибка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_21 10 2021</oddHeader>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 гибка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_08 11 2021</oddHeader>
     <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>
@@ -6359,7 +6744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6467,7 +6852,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -6477,12 +6862,12 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>К3</t>
+          <t>К2</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>467.0</t>
+          <t>444.0</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -6538,7 +6923,7 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
@@ -6548,12 +6933,12 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>К3</t>
+          <t>К7</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>467.0</t>
+          <t>625.0</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -6584,7 +6969,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -6609,7 +6994,7 @@
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
@@ -6619,12 +7004,12 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>К4</t>
+          <t>К2</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>230.0</t>
+          <t>444.0</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -6648,7 +7033,7 @@
         </is>
       </c>
       <c r="N4" s="3">
-        <f>'Ведомость Нач.смен'!N7-'Ведомость Нач.смен'!Q7</f>
+        <f>'Ведомость Нач.смен'!N6-'Ведомость Нач.смен'!Q6</f>
         <v/>
       </c>
     </row>
@@ -6680,7 +7065,7 @@
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
@@ -6690,12 +7075,12 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>К4</t>
+          <t>К1</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>230.0</t>
+          <t>444.0</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -6726,7 +7111,7 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -6746,27 +7131,27 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>Направляющая</t>
+          <t>Крышка</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>Н</t>
+          <t>К8</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>625.0</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -6790,78 +7175,220 @@
         </is>
       </c>
       <c r="N6" s="3">
-        <f>'Ведомость Нач.смен'!N24-'Ведомость Нач.смен'!Q24</f>
+        <f>'Ведомость Нач.смен'!N9-'Ведомость Нач.смен'!Q9</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>Крышка</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>К1</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>444.0</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N7" s="3">
+        <f>'Ведомость Нач.смен'!N10-'Ведомость Нач.смен'!Q10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>Направляющая</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>Н</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N8" s="3">
+        <f>'Ведомость Нач.смен'!N25-'Ведомость Нач.смен'!Q25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>Сухарь</t>
         </is>
       </c>
-      <c r="H7" s="3" t="inlineStr">
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>СУ</t>
         </is>
       </c>
-      <c r="I7" s="3" t="inlineStr">
+      <c r="I9" s="3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N7" s="3">
-        <f>'Ведомость Нач.смен'!N25-'Ведомость Нач.смен'!Q25</f>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N9" s="3">
+        <f>'Ведомость Нач.смен'!N26-'Ведомость Нач.смен'!Q26</f>
         <v/>
       </c>
     </row>
@@ -6869,7 +7396,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 фрезер&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_21 10 2021</oddHeader>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 фрезер&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_08 11 2021</oddHeader>
     <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>
@@ -6968,7 +7495,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -6993,7 +7520,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -7032,7 +7559,7 @@
         </is>
       </c>
       <c r="N2" s="3">
-        <f>'Ведомость Нач.смен'!N25-'Ведомость Нач.смен'!R25</f>
+        <f>'Ведомость Нач.смен'!N26-'Ведомость Нач.смен'!R26</f>
         <v/>
       </c>
     </row>
@@ -7040,7 +7567,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 сверловка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_21 10 2021</oddHeader>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 сверловка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_08 11 2021</oddHeader>
     <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>
@@ -7056,7 +7583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7139,7 +7666,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -7159,58 +7686,58 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2500 (Алюм)</t>
+          <t>1600 (Алюм)</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>Шина (СТП 036)</t>
+          <t>Шина (СТП 05)</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>Ш3</t>
+          <t>Ш13</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>529.5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>531.4</t>
+          <t>1451.9</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>489.5</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>493.9</t>
         </is>
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>468.5</t>
         </is>
       </c>
       <c r="N2" s="3">
-        <f>'Ведомость Нач.смен'!N16-'Ведомость Нач.смен'!S16</f>
+        <f>'Ведомость Нач.смен'!N21-'Ведомость Нач.смен'!S21</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -7230,58 +7757,58 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>2500 (Алюм)</t>
+          <t>1600 (Алюм)</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>Шина (СТП 036)</t>
+          <t>Шина (СТП 06)</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>Ш3</t>
+          <t>Ш14</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>329.5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>331.4</t>
+          <t>1447.3</t>
         </is>
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>480.2</t>
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>493.9</t>
         </is>
       </c>
       <c r="M3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>473.2</t>
         </is>
       </c>
       <c r="N3" s="3">
-        <f>'Ведомость Нач.смен'!N17-'Ведомость Нач.смен'!S17</f>
+        <f>'Ведомость Нач.смен'!N22-'Ведомость Нач.смен'!S22</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -7301,58 +7828,58 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>2500 (Алюм)</t>
+          <t>1600 (Алюм)</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>Шина</t>
+          <t>Шина (СТП 06)</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>Ш</t>
+          <t>Ш15</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>529.5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1447.3</t>
         </is>
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>473.2</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>493.9</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>480.2</t>
         </is>
       </c>
       <c r="N4" s="3">
-        <f>'Ведомость Нач.смен'!N19-'Ведомость Нач.смен'!S19</f>
+        <f>'Ведомость Нач.смен'!N23-'Ведомость Нач.смен'!S23</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -7372,193 +7899,51 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>2500 (Алюм)</t>
+          <t>1600 (Алюм)</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>Шина</t>
+          <t>Шина (СТП 05)</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>Ш</t>
+          <t>Ш16</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>329.5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1451.9</t>
         </is>
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>468.5</t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>493.9</t>
         </is>
       </c>
       <c r="M5" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>489.5</t>
         </is>
       </c>
       <c r="N5" s="3">
-        <f>'Ведомость Нач.смен'!N20-'Ведомость Нач.смен'!S20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>2500 (Алюм)</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>Шина (СТП 036)</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>Ш3</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>529.5</t>
-        </is>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>531.4</t>
-        </is>
-      </c>
-      <c r="K6" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L6" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M6" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N6" s="3">
-        <f>'Ведомость Нач.смен'!N22-'Ведомость Нач.смен'!S22</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>2500 (Алюм)</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>Шина (СТП 036)</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>Ш3</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>329.5</t>
-        </is>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>331.4</t>
-        </is>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N7" s="3">
-        <f>'Ведомость Нач.смен'!N23-'Ведомость Нач.смен'!S23</f>
+        <f>'Ведомость Нач.смен'!N24-'Ведомость Нач.смен'!S24</f>
         <v/>
       </c>
     </row>
@@ -7566,7 +7951,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 напыление&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_21 10 2021</oddHeader>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 напыление&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_08 11 2021</oddHeader>
     <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>
@@ -7582,7 +7967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7685,22 +8070,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>Угловая вертикальная секция</t>
+          <t>z-образная горизонтальная</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>uv</t>
+          <t>zg5</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -7715,17 +8100,17 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>500</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>500</t>
         </is>
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>500</t>
         </is>
       </c>
       <c r="N2" s="3">
@@ -7761,7 +8146,7 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
@@ -7771,7 +8156,7 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>К-СД2</t>
+          <t>К-СД4</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
@@ -7786,17 +8171,17 @@
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>444.0</t>
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>625.0</t>
         </is>
       </c>
       <c r="M3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>444.0</t>
         </is>
       </c>
       <c r="N3" s="3">
@@ -7832,7 +8217,7 @@
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
@@ -7842,12 +8227,12 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>К3</t>
+          <t>К2</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>467.0</t>
+          <t>444.0</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -7903,7 +8288,7 @@
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
@@ -7913,12 +8298,12 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>К3</t>
+          <t>К7</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>467.0</t>
+          <t>625.0</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -7974,22 +8359,22 @@
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>Крышка СБ</t>
+          <t>Крышка</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>К-СД3</t>
+          <t>К2</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>444.0</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -8045,22 +8430,22 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>Крышка</t>
+          <t>Крышка СБ</t>
         </is>
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>К4</t>
+          <t>К-СД5</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>230.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -8070,17 +8455,17 @@
       </c>
       <c r="K7" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>444.0</t>
         </is>
       </c>
       <c r="L7" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>625.0</t>
         </is>
       </c>
       <c r="M7" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>444.0</t>
         </is>
       </c>
       <c r="N7" s="3">
@@ -8116,7 +8501,7 @@
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
@@ -8126,12 +8511,12 @@
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>К4</t>
+          <t>К1</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>230.0</t>
+          <t>444.0</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -8182,27 +8567,27 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>Стенка СБ</t>
+          <t>Крышка</t>
         </is>
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>С-СД3</t>
+          <t>К8</t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>625.0</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -8253,27 +8638,27 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>Стенка</t>
+          <t>Крышка</t>
         </is>
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>С1</t>
+          <t>К1</t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>433.0</t>
+          <t>444.0</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -8324,27 +8709,27 @@
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>Стенка</t>
+          <t>Стенка СБ</t>
         </is>
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>С2</t>
+          <t>С-СД13</t>
         </is>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>433.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -8354,17 +8739,17 @@
       </c>
       <c r="K11" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>396.5</t>
         </is>
       </c>
       <c r="L11" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>475.0</t>
         </is>
       </c>
       <c r="M11" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>341.5</t>
         </is>
       </c>
       <c r="N11" s="3">
@@ -8395,27 +8780,27 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>Стенка СБ</t>
+          <t>Стенка</t>
         </is>
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>С-СД3</t>
+          <t>С</t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>396.5</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -8466,27 +8851,27 @@
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>Стенка</t>
+          <t>Уголок_25х25х3</t>
         </is>
       </c>
       <c r="H13" s="3" t="inlineStr">
         <is>
-          <t>С1</t>
+          <t>У</t>
         </is>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>433.0</t>
+          <t>163.0</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -8537,12 +8922,12 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
@@ -8552,12 +8937,12 @@
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>С2</t>
+          <t>С</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>433.0</t>
+          <t>475.0</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -8608,27 +8993,27 @@
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>Шина СБ</t>
+          <t>Стенка</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>Ш-СД1</t>
+          <t>С</t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>341.5</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -8638,12 +9023,12 @@
       </c>
       <c r="K15" s="3" t="inlineStr">
         <is>
-          <t>531.4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L15" s="3" t="inlineStr">
         <is>
-          <t>331.4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M15" s="3" t="inlineStr">
@@ -8679,47 +9064,47 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>2500 (Алюм)</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>Шина (СТП 036)</t>
+          <t>Стенка СБ</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>Ш3</t>
+          <t>С-СД13</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>529.5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
-          <t>531.4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K16" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>396.5</t>
         </is>
       </c>
       <c r="L16" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>475.0</t>
         </is>
       </c>
       <c r="M16" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>341.5</t>
         </is>
       </c>
       <c r="N16" s="3">
@@ -8750,32 +9135,32 @@
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>2500 (Алюм)</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>Шина (СТП 036)</t>
+          <t>Стенка</t>
         </is>
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
-          <t>Ш3</t>
+          <t>С</t>
         </is>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>329.5</t>
+          <t>396.5</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
-          <t>331.4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K17" s="3" t="inlineStr">
@@ -8821,27 +9206,27 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>Шина СБ</t>
+          <t>Уголок_25х25х3</t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>Ш-СД31</t>
+          <t>У</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>163.0</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -8892,27 +9277,27 @@
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>2500 (Алюм)</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t>Шина</t>
+          <t>Стенка</t>
         </is>
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>Ш</t>
+          <t>С</t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>529.5</t>
+          <t>475.0</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -8963,27 +9348,27 @@
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>2500 (Алюм)</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>Шина</t>
+          <t>Стенка</t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t>Ш</t>
+          <t>С</t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>329.5</t>
+          <t>341.5</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -9008,219 +9393,6 @@
       </c>
       <c r="N20" s="3">
         <f>'Ведомость Нач.смен'!N20-'Ведомость Нач.смен'!T20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>Шина СБ (Зеркальная)</t>
-        </is>
-      </c>
-      <c r="H21" s="3" t="inlineStr">
-        <is>
-          <t>Ш-СД1-З</t>
-        </is>
-      </c>
-      <c r="I21" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J21" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K21" s="3" t="inlineStr">
-        <is>
-          <t>531.4</t>
-        </is>
-      </c>
-      <c r="L21" s="3" t="inlineStr">
-        <is>
-          <t>331.4</t>
-        </is>
-      </c>
-      <c r="M21" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N21" s="3">
-        <f>'Ведомость Нач.смен'!N21-'Ведомость Нач.смен'!T21</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>2500 (Алюм)</t>
-        </is>
-      </c>
-      <c r="F22" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G22" s="3" t="inlineStr">
-        <is>
-          <t>Шина (СТП 036)</t>
-        </is>
-      </c>
-      <c r="H22" s="3" t="inlineStr">
-        <is>
-          <t>Ш3</t>
-        </is>
-      </c>
-      <c r="I22" s="3" t="inlineStr">
-        <is>
-          <t>529.5</t>
-        </is>
-      </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>531.4</t>
-        </is>
-      </c>
-      <c r="K22" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L22" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M22" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N22" s="3">
-        <f>'Ведомость Нач.смен'!N22-'Ведомость Нач.смен'!T22</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
-          <t>2500 (Алюм)</t>
-        </is>
-      </c>
-      <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G23" s="3" t="inlineStr">
-        <is>
-          <t>Шина (СТП 036)</t>
-        </is>
-      </c>
-      <c r="H23" s="3" t="inlineStr">
-        <is>
-          <t>Ш3</t>
-        </is>
-      </c>
-      <c r="I23" s="3" t="inlineStr">
-        <is>
-          <t>329.5</t>
-        </is>
-      </c>
-      <c r="J23" s="3" t="inlineStr">
-        <is>
-          <t>331.4</t>
-        </is>
-      </c>
-      <c r="K23" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L23" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M23" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N23" s="3">
-        <f>'Ведомость Нач.смен'!N23-'Ведомость Нач.смен'!T23</f>
         <v/>
       </c>
     </row>
@@ -9228,7 +9400,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 сварка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_21 10 2021</oddHeader>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 сварка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_08 11 2021</oddHeader>
     <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>
@@ -9244,7 +9416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9352,7 +9524,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -9362,7 +9534,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>К-СД2</t>
+          <t>К-СД4</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -9377,17 +9549,17 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>444.0</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>625.0</t>
         </is>
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>444.0</t>
         </is>
       </c>
       <c r="N2" s="3">
@@ -9398,7 +9570,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -9423,7 +9595,7 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
@@ -9433,7 +9605,7 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>К-СД3</t>
+          <t>К-СД5</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
@@ -9448,28 +9620,28 @@
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>444.0</t>
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>625.0</t>
         </is>
       </c>
       <c r="M3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>444.0</t>
         </is>
       </c>
       <c r="N3" s="3">
-        <f>'Ведомость Нач.смен'!N6-'Ведомость Нач.смен'!U6</f>
+        <f>'Ведомость Нач.смен'!N7-'Ведомость Нач.смен'!U7</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -9489,12 +9661,12 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
@@ -9504,7 +9676,7 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>С-СД3</t>
+          <t>С-СД13</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
@@ -9519,28 +9691,28 @@
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>396.5</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>475.0</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>341.5</t>
         </is>
       </c>
       <c r="N4" s="3">
-        <f>'Ведомость Нач.смен'!N9-'Ведомость Нач.смен'!U9</f>
+        <f>'Ведомость Нач.смен'!N11-'Ведомость Нач.смен'!U11</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -9560,12 +9732,12 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
@@ -9575,7 +9747,7 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>С-СД3</t>
+          <t>С-СД13</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
@@ -9590,28 +9762,28 @@
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>396.5</t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>475.0</t>
         </is>
       </c>
       <c r="M5" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>341.5</t>
         </is>
       </c>
       <c r="N5" s="3">
-        <f>'Ведомость Нач.смен'!N12-'Ведомость Нач.смен'!U12</f>
+        <f>'Ведомость Нач.смен'!N16-'Ведомость Нач.смен'!U16</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -9631,27 +9803,27 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>Шина СБ</t>
+          <t>Направляющая</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>Ш-СД1</t>
+          <t>Н</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>229</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -9661,12 +9833,12 @@
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>531.4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
-          <t>331.4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr">
@@ -9675,220 +9847,7 @@
         </is>
       </c>
       <c r="N6" s="3">
-        <f>'Ведомость Нач.смен'!N15-'Ведомость Нач.смен'!U15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>Шина СБ</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>Ш-СД31</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N7" s="3">
-        <f>'Ведомость Нач.смен'!N18-'Ведомость Нач.смен'!U18</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>Шина СБ (Зеркальная)</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="inlineStr">
-        <is>
-          <t>Ш-СД1-З</t>
-        </is>
-      </c>
-      <c r="I8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K8" s="3" t="inlineStr">
-        <is>
-          <t>531.4</t>
-        </is>
-      </c>
-      <c r="L8" s="3" t="inlineStr">
-        <is>
-          <t>331.4</t>
-        </is>
-      </c>
-      <c r="M8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N8" s="3">
-        <f>'Ведомость Нач.смен'!N21-'Ведомость Нач.смен'!U21</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>Направляющая</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="inlineStr">
-        <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="inlineStr">
-        <is>
-          <t>475</t>
-        </is>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N9" s="3">
-        <f>'Ведомость Нач.смен'!N24-'Ведомость Нач.смен'!U24</f>
+        <f>'Ведомость Нач.смен'!N25-'Ведомость Нач.смен'!U25</f>
         <v/>
       </c>
     </row>
@@ -9896,7 +9855,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 зачистка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_21 10 2021</oddHeader>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 зачистка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_08 11 2021</oddHeader>
     <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>
@@ -9912,7 +9871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9995,7 +9954,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -10015,22 +9974,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1600 (Алюм)</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>Шина СБ</t>
+          <t>Шина (СТП 05)</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>Ш-СД1</t>
+          <t>Ш13</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -10040,33 +9999,33 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1451.9</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>531.4</t>
+          <t>489.5</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>331.4</t>
+          <t>493.9</t>
         </is>
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>468.5</t>
         </is>
       </c>
       <c r="N2" s="3">
-        <f>'Ведомость Нач.смен'!N15-'Ведомость Нач.смен'!V15</f>
+        <f>'Ведомость Нач.смен'!N21-'Ведомость Нач.смен'!V21</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -10086,22 +10045,22 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1600 (Алюм)</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>Шина СБ</t>
+          <t>Шина (СТП 06)</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>Ш-СД31</t>
+          <t>Ш14</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
@@ -10111,33 +10070,33 @@
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1447.3</t>
         </is>
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>480.2</t>
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>493.9</t>
         </is>
       </c>
       <c r="M3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>473.2</t>
         </is>
       </c>
       <c r="N3" s="3">
-        <f>'Ведомость Нач.смен'!N18-'Ведомость Нач.смен'!V18</f>
+        <f>'Ведомость Нач.смен'!N22-'Ведомость Нач.смен'!V22</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -10157,22 +10116,22 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1600 (Алюм)</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>Шина СБ (Зеркальная)</t>
+          <t>Шина (СТП 06)</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>Ш-СД1-З</t>
+          <t>Ш15</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
@@ -10182,26 +10141,97 @@
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1447.3</t>
         </is>
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>531.4</t>
+          <t>473.2</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>331.4</t>
+          <t>493.9</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>480.2</t>
         </is>
       </c>
       <c r="N4" s="3">
-        <f>'Ведомость Нач.смен'!N21-'Ведомость Нач.смен'!V21</f>
+        <f>'Ведомость Нач.смен'!N23-'Ведомость Нач.смен'!V23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>1600 (Алюм)</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Шина (СТП 05)</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Ш16</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>1451.9</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>468.5</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>493.9</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>489.5</t>
+        </is>
+      </c>
+      <c r="N5" s="3">
+        <f>'Ведомость Нач.смен'!N24-'Ведомость Нач.смен'!V24</f>
         <v/>
       </c>
     </row>
@@ -10209,7 +10239,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 шлифовка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_21 10 2021</oddHeader>
+    <oddHeader>&amp;L&amp;"Century Gothic"&amp;12 Заказ № 1_x000a_Этап № 1&amp;C&amp;"Century Gothic"&amp;20 шлифовка&amp;R&amp;"Century Gothic"&amp;12 ООО «ПИК «СОЛЯРИС»_x000a_08 11 2021</oddHeader>
     <oddFooter>&amp;L&amp;"Century Gothic"&amp;14 Время начала:____:_____x000a_Время завершения:____:____&amp;C&amp;"Century Gothic"&amp;14 ФИО исполнителя:____________&amp;R&amp;"Century Gothic"&amp;10 №3818_x000a_EEk</oddFooter>
     <evenHeader/>
     <evenFooter/>
